--- a/data/trans_bre/P25A_3_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_3_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,57%</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>37,34%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49,52%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-17,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,48%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,43</t>
+          <t>-0,93; 0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,03</t>
+          <t>-0,64; 1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,06</t>
+          <t>-0,46; 1,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 4,39</t>
+          <t>-1,05; 0,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-1,17; 1,35</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 1,85</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-68,08; 385,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-69,79; 362,38</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-78,03; 249,62</t>
+          <t>-70,18; 392,19</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-59,59; 492,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-77,81; 216,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-54,31; 169,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-66,04; 131,45</t>
         </is>
       </c>
     </row>
@@ -720,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -730,32 +802,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>148,91%</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>618,17%</t>
+          <t>135,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>745,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>184,06%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>96,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,54</t>
+          <t>-0,48; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,39</t>
+          <t>-0,41; 1,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,13</t>
+          <t>-0,58; 1,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 28,39</t>
+          <t>0,65; 5,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-0,07; 4,89</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 4,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-74,95; 592,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-40,68; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 398,65</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>411,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>119,8%</t>
+          <t>290,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>24,99%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>58,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 8,12</t>
+          <t>-0,55; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,52</t>
+          <t>-1,62; 3,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,97</t>
+          <t>-3,26; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,15 +1025,35 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>0,69; 8,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -925,37 +1077,57 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>58,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49,69%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>55,92%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51,56%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,23</t>
+          <t>-0,3; 1,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,91</t>
+          <t>-0,24; 1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,98</t>
+          <t>-0,32; 1,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,93</t>
+          <t>-0,36; 1,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 385,81</t>
+          <t>-0,49; 1,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 311,16</t>
+          <t>-0,47; 2,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 265,94</t>
+          <t>-44,49; 440,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 316,94</t>
+          <t>-33,9; 333,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-40,97; 241,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,56; 339,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; 212,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,26; 174,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_3_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_3_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,255 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-24,67%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>37,34%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>49,52%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-17,38%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>17,84%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-8,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1515797759327139</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2190508944705848</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2523248707911834</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1551535534653916</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2643461618830044</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2357452745830626</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2758459072368581</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3477080578174824</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4421491560392727</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.173827525320687</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1913094206820054</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1021167908313817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 0,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 1,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 1,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 0,78</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 1,35</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 1,85</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-70,18; 392,19</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-59,59; 492,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-77,81; 216,59</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-54,31; 169,28</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-66,04; 131,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.8916270071221197</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6534574545717925</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4506788317692405</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.053139031425208</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.083291477016437</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.103090146392432</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.7088582736353166</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6130309032714247</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.7781199634138468</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.5308300702662636</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.6811726694968298</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.4855205118792447</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.097572617486616</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.080987062400747</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.7769752655769016</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.395802758653195</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.716725013960931</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>3.964860630420971</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>4.52047435099119</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.165923989159007</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.733598383602099</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.251178130714431</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>87,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>135,05%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>47,35%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>745,07%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>184,06%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>96,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 2,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 1,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 1,13</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 5,83</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 4,89</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 4,6</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-74,95; 592,18</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-40,68; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-19,82; 398,65</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.3545793752674915</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6712162477809277</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2542193263965089</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.479806549557385</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.819770615200352</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1.875812135621576</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6837120972543936</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.884450055915838</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5011579516025296</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>7.450652143844549</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.780228260207029</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.088465510269025</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>290,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>24,99%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>58,78%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.501301578335226</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2658366407300699</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5426499464278667</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.645973475566611</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1335232733856242</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.02035838832488375</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.7474427326290821</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="n">
+        <v>-0.4440915450920183</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.09885174185819226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 5,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 3,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 3,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 8,74</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.417342216601672</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.928103334222316</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.143468986090345</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.832233557496076</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.776602016573882</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.71075540260955</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>6.127433969944994</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>4.5340871021816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,64 +915,34 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>52,7%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>58,91%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>49,69%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>55,92%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>47,31%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>51,56%</t>
+      <c r="C10" s="5" t="n">
+        <v>1.883239796110387</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1979979910188615</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.024049567520879</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>3.062533649535967</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>3.602121845652043</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1928925101007379</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.146583286955658</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -1135,72 +950,196 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 1,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 1,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 1,02</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 1,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 1,67</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 2,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-44,49; 440,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-33,9; 333,94</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-40,97; 241,97</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-37,56; 339,56</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-28,9; 212,88</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-21,26; 174,75</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.1011676337086615</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.666792140156154</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.730475290048977</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>0.6928638295228673</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.396204623774405</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.905353610748354</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.030157300510392</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>8.784387984543365</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.2740671918305486</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3901619735763649</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3385225488399891</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4246130539523634</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.6157648051012842</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.9825036035110608</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5133481691686423</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6854999222336794</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5787421738999423</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5592372340319988</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.4755570881744552</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.5490392077174197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3141655359521499</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1876780231383088</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2178962700621829</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3559165995357017</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4879907248920634</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4282121002054332</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4863060295072312</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3071023902210436</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3417821099900402</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3756484066184426</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2917869916963959</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2132649019968149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.254806165678189</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.155991062698881</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.00704615077904</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.458416352642987</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.655489005612997</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.321065499228096</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.45781691465456</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.641962409750481</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.56964399329875</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.395625415714518</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.079429726658896</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.762806413160191</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1147,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
